--- a/Армяне.xlsx
+++ b/Армяне.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>равномерное распределение</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +64,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +80,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,7 +120,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -181,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +342,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>SUM(A1:H1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I22" si="0">SUM(A2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.05</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.0150000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <v>0.12</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+      <c r="J11">
+        <v>0.15</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.01</v>
+      </c>
+      <c r="O11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.2</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>7.05</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Армяне.xlsx
+++ b/Армяне.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>равномерное распределение</t>
   </si>
@@ -64,7 +61,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -80,9 +77,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -120,7 +117,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -192,7 +189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -345,12 +342,12 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -365,7 +362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -380,40 +377,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.05</v>
       </c>
       <c r="B3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
       <c r="I3">
         <f t="shared" si="0"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -434,7 +413,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.05</v>
       </c>
@@ -455,7 +434,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -473,7 +452,7 @@
         <v>1.0150000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -491,7 +470,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -512,7 +491,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -530,7 +509,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -551,7 +530,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.05</v>
       </c>
@@ -598,7 +577,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -610,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -622,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2</v>
       </c>
@@ -649,7 +628,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.6</v>
       </c>
@@ -673,7 +652,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.6</v>
       </c>
@@ -697,7 +676,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -709,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -730,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -751,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -772,34 +751,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>

--- a/Армяне.xlsx
+++ b/Армяне.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>равномерное распределение</t>
+  </si>
+  <si>
+    <t>f:</t>
+  </si>
+  <si>
+    <t>50-x</t>
   </si>
 </sst>
 </file>
@@ -339,15 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:H21"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -362,7 +368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -373,11 +379,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I22" si="0">SUM(A2:H2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I2:I37" si="0">SUM(A2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -392,7 +398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -413,7 +419,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.05</v>
       </c>
@@ -434,7 +440,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -452,7 +458,7 @@
         <v>1.0150000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -470,7 +476,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -491,7 +497,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -509,7 +515,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -530,250 +536,335 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.05</v>
       </c>
       <c r="B11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0.12</v>
       </c>
-      <c r="C11">
+      <c r="B12">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0.03</v>
       </c>
-      <c r="D11">
+      <c r="B13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
+      <c r="B14">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.01</v>
+      </c>
+      <c r="B15">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0.3</v>
       </c>
-      <c r="G11">
-        <v>0.3</v>
-      </c>
-      <c r="H11">
-        <v>0.01</v>
-      </c>
-      <c r="I11">
-        <v>0.01</v>
-      </c>
-      <c r="J11">
-        <v>0.15</v>
-      </c>
-      <c r="K11">
-        <v>0.1</v>
-      </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N11">
-        <v>0.01</v>
-      </c>
-      <c r="O11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.2</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14">
-        <v>0.2</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-      <c r="G14">
-        <v>0.01</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.6</v>
-      </c>
-      <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <v>0.3</v>
-      </c>
-      <c r="D15">
-        <v>0.05</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-      <c r="F15">
-        <v>0.01</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.6</v>
-      </c>
       <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16">
-        <v>0.4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.01</v>
+      </c>
+      <c r="B24">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.01</v>
+      </c>
+      <c r="B25">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>SUM(A27:H27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>SUM(A28:H28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.2</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29">
+        <v>0.01</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.6</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.6</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31">
+        <v>0.4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>0.05</v>
       </c>
-      <c r="I22">
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>7.05</v>
       </c>

--- a/Армяне.xlsx
+++ b/Армяне.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>равномерное распределение</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>50-x</t>
+  </si>
+  <si>
+    <t>1 + sin(x)</t>
   </si>
 </sst>
 </file>
@@ -345,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,20 +382,32 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I37" si="0">SUM(A2:H2)</f>
+        <f t="shared" ref="I2:I10" si="0">SUM(A2:H2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000007E-2</v>
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0.12000000000000001</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -656,6 +671,18 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>SUM(A26:H26)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
@@ -670,41 +697,53 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>0.01</v>
       </c>
       <c r="I28">
         <f>SUM(A28:H28)</f>
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.05</v>
-      </c>
-      <c r="G29">
         <v>0.01</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
+        <f>SUM(A29:H29)</f>
+        <v>1.36</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,44 +754,32 @@
         <v>0.1</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1.36</v>
+        <f>SUM(A30:H30)</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
-      </c>
-      <c r="C31">
-        <v>0.4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f>SUM(A31:H31)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -760,10 +787,19 @@
         <v>0</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f>SUM(A32:H32)</f>
         <v>1</v>
       </c>
     </row>
@@ -784,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f>SUM(A33:H33)</f>
         <v>1</v>
       </c>
     </row>
@@ -796,76 +832,55 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(A34:H34)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(A35:H35)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0.05</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
+        <f>SUM(A36:H36)</f>
         <v>7.05</v>
       </c>
     </row>
